--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sirpa-Cd47.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sirpa-Cd47.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.619442127269885</v>
+        <v>1.922032</v>
       </c>
       <c r="H2">
-        <v>0.619442127269885</v>
+        <v>5.766096</v>
       </c>
       <c r="I2">
-        <v>0.0007617623134551019</v>
+        <v>0.002297261960450741</v>
       </c>
       <c r="J2">
-        <v>0.0007617623134551019</v>
+        <v>0.002297261960450741</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.3104510922269</v>
+        <v>35.43134066666666</v>
       </c>
       <c r="N2">
-        <v>31.3104510922269</v>
+        <v>106.294022</v>
       </c>
       <c r="O2">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="P2">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="Q2">
-        <v>19.39501243034873</v>
+        <v>68.10017056423466</v>
       </c>
       <c r="R2">
-        <v>19.39501243034873</v>
+        <v>612.901535078112</v>
       </c>
       <c r="S2">
-        <v>5.976156136913109E-05</v>
+        <v>0.0001939041703676105</v>
       </c>
       <c r="T2">
-        <v>5.976156136913109E-05</v>
+        <v>0.0001939041703676105</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.619442127269885</v>
+        <v>1.922032</v>
       </c>
       <c r="H3">
-        <v>0.619442127269885</v>
+        <v>5.766096</v>
       </c>
       <c r="I3">
-        <v>0.0007617623134551019</v>
+        <v>0.002297261960450741</v>
       </c>
       <c r="J3">
-        <v>0.0007617623134551019</v>
+        <v>0.002297261960450741</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.1292300225135</v>
+        <v>82.38429266666667</v>
       </c>
       <c r="N3">
-        <v>82.1292300225135</v>
+        <v>247.152878</v>
       </c>
       <c r="O3">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="P3">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="Q3">
-        <v>50.87430495618347</v>
+        <v>158.3452468026987</v>
       </c>
       <c r="R3">
-        <v>50.87430495618347</v>
+        <v>1425.107221224288</v>
       </c>
       <c r="S3">
-        <v>0.0001567582340392541</v>
+        <v>0.0004508623614087841</v>
       </c>
       <c r="T3">
-        <v>0.0001567582340392541</v>
+        <v>0.0004508623614087841</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.619442127269885</v>
+        <v>1.922032</v>
       </c>
       <c r="H4">
-        <v>0.619442127269885</v>
+        <v>5.766096</v>
       </c>
       <c r="I4">
-        <v>0.0007617623134551019</v>
+        <v>0.002297261960450741</v>
       </c>
       <c r="J4">
-        <v>0.0007617623134551019</v>
+        <v>0.002297261960450741</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>87.7402052182964</v>
+        <v>94.98039866666666</v>
       </c>
       <c r="N4">
-        <v>87.7402052182964</v>
+        <v>284.941196</v>
       </c>
       <c r="O4">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="P4">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="Q4">
-        <v>54.34997936751778</v>
+        <v>182.5553656100907</v>
       </c>
       <c r="R4">
-        <v>54.34997936751778</v>
+        <v>1642.998290490816</v>
       </c>
       <c r="S4">
-        <v>0.0001674677775560736</v>
+        <v>0.000519796740911118</v>
       </c>
       <c r="T4">
-        <v>0.0001674677775560736</v>
+        <v>0.000519796740911118</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.619442127269885</v>
+        <v>1.922032</v>
       </c>
       <c r="H5">
-        <v>0.619442127269885</v>
+        <v>5.766096</v>
       </c>
       <c r="I5">
-        <v>0.0007617623134551019</v>
+        <v>0.002297261960450741</v>
       </c>
       <c r="J5">
-        <v>0.0007617623134551019</v>
+        <v>0.002297261960450741</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.233232975752</v>
+        <v>116.4226483333333</v>
       </c>
       <c r="N5">
-        <v>111.233232975752</v>
+        <v>349.267945</v>
       </c>
       <c r="O5">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="P5">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="Q5">
-        <v>68.90255045760654</v>
+        <v>223.7680556214133</v>
       </c>
       <c r="R5">
-        <v>68.90255045760654</v>
+        <v>2013.91250059272</v>
       </c>
       <c r="S5">
-        <v>0.0002123083969370711</v>
+        <v>0.0006371431792394233</v>
       </c>
       <c r="T5">
-        <v>0.0002123083969370711</v>
+        <v>0.0006371431792394233</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.619442127269885</v>
+        <v>1.922032</v>
       </c>
       <c r="H6">
-        <v>0.619442127269885</v>
+        <v>5.766096</v>
       </c>
       <c r="I6">
-        <v>0.0007617623134551019</v>
+        <v>0.002297261960450741</v>
       </c>
       <c r="J6">
-        <v>0.0007617623134551019</v>
+        <v>0.002297261960450741</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>65.5656738824178</v>
+        <v>67.22401466666666</v>
       </c>
       <c r="N6">
-        <v>65.5656738824178</v>
+        <v>201.672044</v>
       </c>
       <c r="O6">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="P6">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="Q6">
-        <v>40.61414050560842</v>
+        <v>129.2067073578027</v>
       </c>
       <c r="R6">
-        <v>40.61414050560842</v>
+        <v>1162.860366220224</v>
       </c>
       <c r="S6">
-        <v>0.000125143742959529</v>
+        <v>0.0003678951049397702</v>
       </c>
       <c r="T6">
-        <v>0.000125143742959529</v>
+        <v>0.0003678951049397702</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.619442127269885</v>
+        <v>1.922032</v>
       </c>
       <c r="H7">
-        <v>0.619442127269885</v>
+        <v>5.766096</v>
       </c>
       <c r="I7">
-        <v>0.0007617623134551019</v>
+        <v>0.002297261960450741</v>
       </c>
       <c r="J7">
-        <v>0.0007617623134551019</v>
+        <v>0.002297261960450741</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.12593421067</v>
+        <v>23.32687966666667</v>
       </c>
       <c r="N7">
-        <v>21.12593421067</v>
+        <v>69.980639</v>
       </c>
       <c r="O7">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037586</v>
       </c>
       <c r="P7">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037585</v>
       </c>
       <c r="Q7">
-        <v>13.08629362802106</v>
+        <v>44.83500917948267</v>
       </c>
       <c r="R7">
-        <v>13.08629362802106</v>
+        <v>403.515082615344</v>
       </c>
       <c r="S7">
-        <v>4.032260059404295E-05</v>
+        <v>0.0001276604035840346</v>
       </c>
       <c r="T7">
-        <v>4.032260059404295E-05</v>
+        <v>0.0001276604035840345</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.4864316987623</v>
+        <v>25.97036566666667</v>
       </c>
       <c r="H8">
-        <v>25.4864316987623</v>
+        <v>77.911097</v>
       </c>
       <c r="I8">
-        <v>0.03134207752083651</v>
+        <v>0.03104044737289976</v>
       </c>
       <c r="J8">
-        <v>0.03134207752083651</v>
+        <v>0.03104044737289976</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.3104510922269</v>
+        <v>35.43134066666666</v>
       </c>
       <c r="N8">
-        <v>31.3104510922269</v>
+        <v>106.294022</v>
       </c>
       <c r="O8">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="P8">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="Q8">
-        <v>797.9916732194782</v>
+        <v>920.1648731735703</v>
       </c>
       <c r="R8">
-        <v>797.9916732194782</v>
+        <v>8281.483858562133</v>
       </c>
       <c r="S8">
-        <v>0.002458839793087155</v>
+        <v>0.002620019962590881</v>
       </c>
       <c r="T8">
-        <v>0.002458839793087155</v>
+        <v>0.00262001996259088</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>25.4864316987623</v>
+        <v>25.97036566666667</v>
       </c>
       <c r="H9">
-        <v>25.4864316987623</v>
+        <v>77.911097</v>
       </c>
       <c r="I9">
-        <v>0.03134207752083651</v>
+        <v>0.03104044737289976</v>
       </c>
       <c r="J9">
-        <v>0.03134207752083651</v>
+        <v>0.03104044737289976</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>82.1292300225135</v>
+        <v>82.38429266666667</v>
       </c>
       <c r="N9">
-        <v>82.1292300225135</v>
+        <v>247.152878</v>
       </c>
       <c r="O9">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="P9">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="Q9">
-        <v>2093.181011440728</v>
+        <v>2139.550205743019</v>
       </c>
       <c r="R9">
-        <v>2093.181011440728</v>
+        <v>19255.95185168716</v>
       </c>
       <c r="S9">
-        <v>0.006449687306009415</v>
+        <v>0.006092021564221067</v>
       </c>
       <c r="T9">
-        <v>0.006449687306009415</v>
+        <v>0.006092021564221066</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.4864316987623</v>
+        <v>25.97036566666667</v>
       </c>
       <c r="H10">
-        <v>25.4864316987623</v>
+        <v>77.911097</v>
       </c>
       <c r="I10">
-        <v>0.03134207752083651</v>
+        <v>0.03104044737289976</v>
       </c>
       <c r="J10">
-        <v>0.03134207752083651</v>
+        <v>0.03104044737289976</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>87.7402052182964</v>
+        <v>94.98039866666666</v>
       </c>
       <c r="N10">
-        <v>87.7402052182964</v>
+        <v>284.941196</v>
       </c>
       <c r="O10">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="P10">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="Q10">
-        <v>2236.184747531498</v>
+        <v>2466.675684539112</v>
       </c>
       <c r="R10">
-        <v>2236.184747531498</v>
+        <v>22200.08116085201</v>
       </c>
       <c r="S10">
-        <v>0.006890322576602533</v>
+        <v>0.007023458211831713</v>
       </c>
       <c r="T10">
-        <v>0.006890322576602533</v>
+        <v>0.007023458211831712</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.4864316987623</v>
+        <v>25.97036566666667</v>
       </c>
       <c r="H11">
-        <v>25.4864316987623</v>
+        <v>77.911097</v>
       </c>
       <c r="I11">
-        <v>0.03134207752083651</v>
+        <v>0.03104044737289976</v>
       </c>
       <c r="J11">
-        <v>0.03134207752083651</v>
+        <v>0.03104044737289976</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>111.233232975752</v>
+        <v>116.4226483333333</v>
       </c>
       <c r="N11">
-        <v>111.233232975752</v>
+        <v>349.267945</v>
       </c>
       <c r="O11">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="P11">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="Q11">
-        <v>2834.938194869018</v>
+        <v>3023.538749098407</v>
       </c>
       <c r="R11">
-        <v>2834.938194869018</v>
+        <v>27211.84874188566</v>
       </c>
       <c r="S11">
-        <v>0.008735252607791824</v>
+        <v>0.008609035305796348</v>
       </c>
       <c r="T11">
-        <v>0.008735252607791824</v>
+        <v>0.008609035305796346</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.4864316987623</v>
+        <v>25.97036566666667</v>
       </c>
       <c r="H12">
-        <v>25.4864316987623</v>
+        <v>77.911097</v>
       </c>
       <c r="I12">
-        <v>0.03134207752083651</v>
+        <v>0.03104044737289976</v>
       </c>
       <c r="J12">
-        <v>0.03134207752083651</v>
+        <v>0.03104044737289976</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>65.5656738824178</v>
+        <v>67.22401466666666</v>
       </c>
       <c r="N12">
-        <v>65.5656738824178</v>
+        <v>201.672044</v>
       </c>
       <c r="O12">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="P12">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="Q12">
-        <v>1671.035069187564</v>
+        <v>1745.832242474696</v>
       </c>
       <c r="R12">
-        <v>1671.035069187564</v>
+        <v>15712.49018227227</v>
       </c>
       <c r="S12">
-        <v>0.005148935335610264</v>
+        <v>0.004970973637412144</v>
       </c>
       <c r="T12">
-        <v>0.005148935335610264</v>
+        <v>0.004970973637412143</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.4864316987623</v>
+        <v>25.97036566666667</v>
       </c>
       <c r="H13">
-        <v>25.4864316987623</v>
+        <v>77.911097</v>
       </c>
       <c r="I13">
-        <v>0.03134207752083651</v>
+        <v>0.03104044737289976</v>
       </c>
       <c r="J13">
-        <v>0.03134207752083651</v>
+        <v>0.03104044737289976</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.12593421067</v>
+        <v>23.32687966666667</v>
       </c>
       <c r="N13">
-        <v>21.12593421067</v>
+        <v>69.980639</v>
       </c>
       <c r="O13">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037586</v>
       </c>
       <c r="P13">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037585</v>
       </c>
       <c r="Q13">
-        <v>538.4246793327868</v>
+        <v>605.8075948056647</v>
       </c>
       <c r="R13">
-        <v>538.4246793327868</v>
+        <v>5452.268353250983</v>
       </c>
       <c r="S13">
-        <v>0.00165903990173532</v>
+        <v>0.001724938691047611</v>
       </c>
       <c r="T13">
-        <v>0.00165903990173532</v>
+        <v>0.00172493869104761</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>234.346328530582</v>
+        <v>251.8670403333333</v>
       </c>
       <c r="H14">
-        <v>234.346328530582</v>
+        <v>755.601121</v>
       </c>
       <c r="I14">
-        <v>0.2881886676935482</v>
+        <v>0.3010379488213927</v>
       </c>
       <c r="J14">
-        <v>0.2881886676935482</v>
+        <v>0.3010379488213927</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.3104510922269</v>
+        <v>35.43134066666666</v>
       </c>
       <c r="N14">
-        <v>31.3104510922269</v>
+        <v>106.294022</v>
       </c>
       <c r="O14">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="P14">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="Q14">
-        <v>7337.489258099725</v>
+        <v>8923.986908755407</v>
       </c>
       <c r="R14">
-        <v>7337.489258099725</v>
+        <v>80315.88217879867</v>
       </c>
       <c r="S14">
-        <v>0.02260889577503522</v>
+        <v>0.02540960270108952</v>
       </c>
       <c r="T14">
-        <v>0.02260889577503522</v>
+        <v>0.02540960270108952</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>234.346328530582</v>
+        <v>251.8670403333333</v>
       </c>
       <c r="H15">
-        <v>234.346328530582</v>
+        <v>755.601121</v>
       </c>
       <c r="I15">
-        <v>0.2881886676935482</v>
+        <v>0.3010379488213927</v>
       </c>
       <c r="J15">
-        <v>0.2881886676935482</v>
+        <v>0.3010379488213927</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>82.1292300225135</v>
+        <v>82.38429266666667</v>
       </c>
       <c r="N15">
-        <v>82.1292300225135</v>
+        <v>247.152878</v>
       </c>
       <c r="O15">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="P15">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="Q15">
-        <v>19246.68352081969</v>
+        <v>20749.88796390847</v>
       </c>
       <c r="R15">
-        <v>19246.68352081969</v>
+        <v>186748.9916751763</v>
       </c>
       <c r="S15">
-        <v>0.05930451772136497</v>
+        <v>0.05908193441406186</v>
       </c>
       <c r="T15">
-        <v>0.05930451772136497</v>
+        <v>0.05908193441406186</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>234.346328530582</v>
+        <v>251.8670403333333</v>
       </c>
       <c r="H16">
-        <v>234.346328530582</v>
+        <v>755.601121</v>
       </c>
       <c r="I16">
-        <v>0.2881886676935482</v>
+        <v>0.3010379488213927</v>
       </c>
       <c r="J16">
-        <v>0.2881886676935482</v>
+        <v>0.3010379488213927</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>87.7402052182964</v>
+        <v>94.98039866666666</v>
       </c>
       <c r="N16">
-        <v>87.7402052182964</v>
+        <v>284.941196</v>
       </c>
       <c r="O16">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="P16">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="Q16">
-        <v>20561.59495742757</v>
+        <v>23922.43190185341</v>
       </c>
       <c r="R16">
-        <v>20561.59495742757</v>
+        <v>215301.8871166807</v>
       </c>
       <c r="S16">
-        <v>0.06335613464071549</v>
+        <v>0.06811523778386405</v>
       </c>
       <c r="T16">
-        <v>0.06335613464071549</v>
+        <v>0.06811523778386405</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>234.346328530582</v>
+        <v>251.8670403333333</v>
       </c>
       <c r="H17">
-        <v>234.346328530582</v>
+        <v>755.601121</v>
       </c>
       <c r="I17">
-        <v>0.2881886676935482</v>
+        <v>0.3010379488213927</v>
       </c>
       <c r="J17">
-        <v>0.2881886676935482</v>
+        <v>0.3010379488213927</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>111.233232975752</v>
+        <v>116.4226483333333</v>
       </c>
       <c r="N17">
-        <v>111.233232975752</v>
+        <v>349.267945</v>
       </c>
       <c r="O17">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="P17">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="Q17">
-        <v>26067.09975845435</v>
+        <v>29323.02786348515</v>
       </c>
       <c r="R17">
-        <v>26067.09975845435</v>
+        <v>263907.2507713664</v>
       </c>
       <c r="S17">
-        <v>0.0803201641414015</v>
+        <v>0.08349255726418918</v>
       </c>
       <c r="T17">
-        <v>0.0803201641414015</v>
+        <v>0.08349255726418918</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>234.346328530582</v>
+        <v>251.8670403333333</v>
       </c>
       <c r="H18">
-        <v>234.346328530582</v>
+        <v>755.601121</v>
       </c>
       <c r="I18">
-        <v>0.2881886676935482</v>
+        <v>0.3010379488213927</v>
       </c>
       <c r="J18">
-        <v>0.2881886676935482</v>
+        <v>0.3010379488213927</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>65.5656738824178</v>
+        <v>67.22401466666666</v>
       </c>
       <c r="N18">
-        <v>65.5656738824178</v>
+        <v>201.672044</v>
       </c>
       <c r="O18">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="P18">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="Q18">
-        <v>15365.07495197808</v>
+        <v>16931.51361341792</v>
       </c>
       <c r="R18">
-        <v>15365.07495197808</v>
+        <v>152383.6225207613</v>
       </c>
       <c r="S18">
-        <v>0.04734417536371886</v>
+        <v>0.04820973388283909</v>
       </c>
       <c r="T18">
-        <v>0.04734417536371886</v>
+        <v>0.04820973388283909</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>234.346328530582</v>
+        <v>251.8670403333333</v>
       </c>
       <c r="H19">
-        <v>234.346328530582</v>
+        <v>755.601121</v>
       </c>
       <c r="I19">
-        <v>0.2881886676935482</v>
+        <v>0.3010379488213927</v>
       </c>
       <c r="J19">
-        <v>0.2881886676935482</v>
+        <v>0.3010379488213927</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.12593421067</v>
+        <v>23.32687966666667</v>
       </c>
       <c r="N19">
-        <v>21.12593421067</v>
+        <v>69.980639</v>
       </c>
       <c r="O19">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037586</v>
       </c>
       <c r="P19">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037585</v>
       </c>
       <c r="Q19">
-        <v>4950.785119049134</v>
+        <v>5875.272141855146</v>
       </c>
       <c r="R19">
-        <v>4950.785119049134</v>
+        <v>52877.44927669632</v>
       </c>
       <c r="S19">
-        <v>0.0152547800513122</v>
+        <v>0.01672888277534903</v>
       </c>
       <c r="T19">
-        <v>0.0152547800513122</v>
+        <v>0.01672888277534903</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>306.550206113947</v>
+        <v>306.7639160000001</v>
       </c>
       <c r="H20">
-        <v>306.550206113947</v>
+        <v>920.2917480000001</v>
       </c>
       <c r="I20">
-        <v>0.3769817775047076</v>
+        <v>0.3666521031209191</v>
       </c>
       <c r="J20">
-        <v>0.3769817775047076</v>
+        <v>0.3666521031209191</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>31.3104510922269</v>
+        <v>35.43134066666666</v>
       </c>
       <c r="N20">
-        <v>31.3104510922269</v>
+        <v>106.294022</v>
       </c>
       <c r="O20">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="P20">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="Q20">
-        <v>9598.225235842812</v>
+        <v>10869.05681203672</v>
       </c>
       <c r="R20">
-        <v>9598.225235842812</v>
+        <v>97821.51130833046</v>
       </c>
       <c r="S20">
-        <v>0.02957486768964394</v>
+        <v>0.03094787320434798</v>
       </c>
       <c r="T20">
-        <v>0.02957486768964394</v>
+        <v>0.03094787320434798</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>306.550206113947</v>
+        <v>306.7639160000001</v>
       </c>
       <c r="H21">
-        <v>306.550206113947</v>
+        <v>920.2917480000001</v>
       </c>
       <c r="I21">
-        <v>0.3769817775047076</v>
+        <v>0.3666521031209191</v>
       </c>
       <c r="J21">
-        <v>0.3769817775047076</v>
+        <v>0.3666521031209191</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>82.1292300225135</v>
+        <v>82.38429266666667</v>
       </c>
       <c r="N21">
-        <v>82.1292300225135</v>
+        <v>247.152878</v>
       </c>
       <c r="O21">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="P21">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="Q21">
-        <v>25176.73239138128</v>
+        <v>25272.52823531675</v>
       </c>
       <c r="R21">
-        <v>25176.73239138128</v>
+        <v>227452.7541178508</v>
       </c>
       <c r="S21">
-        <v>0.07757668850613209</v>
+        <v>0.07195941772185162</v>
       </c>
       <c r="T21">
-        <v>0.07757668850613209</v>
+        <v>0.07195941772185162</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>306.550206113947</v>
+        <v>306.7639160000001</v>
       </c>
       <c r="H22">
-        <v>306.550206113947</v>
+        <v>920.2917480000001</v>
       </c>
       <c r="I22">
-        <v>0.3769817775047076</v>
+        <v>0.3666521031209191</v>
       </c>
       <c r="J22">
-        <v>0.3769817775047076</v>
+        <v>0.3666521031209191</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>87.7402052182964</v>
+        <v>94.98039866666666</v>
       </c>
       <c r="N22">
-        <v>87.7402052182964</v>
+        <v>284.941196</v>
       </c>
       <c r="O22">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="P22">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="Q22">
-        <v>26896.77799414877</v>
+        <v>29136.55903822785</v>
       </c>
       <c r="R22">
-        <v>26896.77799414877</v>
+        <v>262229.0313440506</v>
       </c>
       <c r="S22">
-        <v>0.08287663926494918</v>
+        <v>0.08296161758281444</v>
       </c>
       <c r="T22">
-        <v>0.08287663926494918</v>
+        <v>0.08296161758281444</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>306.550206113947</v>
+        <v>306.7639160000001</v>
       </c>
       <c r="H23">
-        <v>306.550206113947</v>
+        <v>920.2917480000001</v>
       </c>
       <c r="I23">
-        <v>0.3769817775047076</v>
+        <v>0.3666521031209191</v>
       </c>
       <c r="J23">
-        <v>0.3769817775047076</v>
+        <v>0.3666521031209191</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>111.233232975752</v>
+        <v>116.4226483333333</v>
       </c>
       <c r="N23">
-        <v>111.233232975752</v>
+        <v>349.267945</v>
       </c>
       <c r="O23">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="P23">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="Q23">
-        <v>34098.57049543747</v>
+        <v>35714.26751382421</v>
       </c>
       <c r="R23">
-        <v>34098.57049543747</v>
+        <v>321428.4076244179</v>
       </c>
       <c r="S23">
-        <v>0.1050674146552269</v>
+        <v>0.1016905736825273</v>
       </c>
       <c r="T23">
-        <v>0.1050674146552269</v>
+        <v>0.1016905736825273</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>306.550206113947</v>
+        <v>306.7639160000001</v>
       </c>
       <c r="H24">
-        <v>306.550206113947</v>
+        <v>920.2917480000001</v>
       </c>
       <c r="I24">
-        <v>0.3769817775047076</v>
+        <v>0.3666521031209191</v>
       </c>
       <c r="J24">
-        <v>0.3769817775047076</v>
+        <v>0.3666521031209191</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>65.5656738824178</v>
+        <v>67.22401466666666</v>
       </c>
       <c r="N24">
-        <v>65.5656738824178</v>
+        <v>201.672044</v>
       </c>
       <c r="O24">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="P24">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="Q24">
-        <v>20099.17084265501</v>
+        <v>20621.9019883881</v>
       </c>
       <c r="R24">
-        <v>20099.17084265501</v>
+        <v>185597.1178954929</v>
       </c>
       <c r="S24">
-        <v>0.06193127414048172</v>
+        <v>0.05871751514467753</v>
       </c>
       <c r="T24">
-        <v>0.06193127414048172</v>
+        <v>0.05871751514467753</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>306.550206113947</v>
+        <v>306.7639160000001</v>
       </c>
       <c r="H25">
-        <v>306.550206113947</v>
+        <v>920.2917480000001</v>
       </c>
       <c r="I25">
-        <v>0.3769817775047076</v>
+        <v>0.3666521031209191</v>
       </c>
       <c r="J25">
-        <v>0.3769817775047076</v>
+        <v>0.3666521031209191</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.12593421067</v>
+        <v>23.32687966666667</v>
       </c>
       <c r="N25">
-        <v>21.12593421067</v>
+        <v>69.980639</v>
       </c>
       <c r="O25">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037586</v>
       </c>
       <c r="P25">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037585</v>
       </c>
       <c r="Q25">
-        <v>6476.159486630573</v>
+        <v>7155.844954607443</v>
       </c>
       <c r="R25">
-        <v>6476.159486630573</v>
+        <v>64402.60459146697</v>
       </c>
       <c r="S25">
-        <v>0.01995489324827387</v>
+        <v>0.02037510578470019</v>
       </c>
       <c r="T25">
-        <v>0.01995489324827387</v>
+        <v>0.02037510578470019</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>241.284826431856</v>
+        <v>244.6034496666666</v>
       </c>
       <c r="H26">
-        <v>241.284826431856</v>
+        <v>733.810349</v>
       </c>
       <c r="I26">
-        <v>0.2967213230950673</v>
+        <v>0.2923563188928492</v>
       </c>
       <c r="J26">
-        <v>0.2967213230950673</v>
+        <v>0.2923563188928492</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>31.3104510922269</v>
+        <v>35.43134066666666</v>
       </c>
       <c r="N26">
-        <v>31.3104510922269</v>
+        <v>106.294022</v>
       </c>
       <c r="O26">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="P26">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="Q26">
-        <v>7554.736757291083</v>
+        <v>8666.628153381518</v>
       </c>
       <c r="R26">
-        <v>7554.736757291083</v>
+        <v>77999.65338043368</v>
       </c>
       <c r="S26">
-        <v>0.02327829724109972</v>
+        <v>0.0246768154623183</v>
       </c>
       <c r="T26">
-        <v>0.02327829724109972</v>
+        <v>0.0246768154623183</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>241.284826431856</v>
+        <v>244.6034496666666</v>
       </c>
       <c r="H27">
-        <v>241.284826431856</v>
+        <v>733.810349</v>
       </c>
       <c r="I27">
-        <v>0.2967213230950673</v>
+        <v>0.2923563188928492</v>
       </c>
       <c r="J27">
-        <v>0.2967213230950673</v>
+        <v>0.2923563188928492</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>82.1292300225135</v>
+        <v>82.38429266666667</v>
       </c>
       <c r="N27">
-        <v>82.1292300225135</v>
+        <v>247.152878</v>
       </c>
       <c r="O27">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="P27">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="Q27">
-        <v>19816.53701096414</v>
+        <v>20151.48218461494</v>
       </c>
       <c r="R27">
-        <v>19816.53701096414</v>
+        <v>181363.3396615344</v>
       </c>
       <c r="S27">
-        <v>0.0610603987472205</v>
+        <v>0.05737807118999475</v>
       </c>
       <c r="T27">
-        <v>0.0610603987472205</v>
+        <v>0.05737807118999475</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>241.284826431856</v>
+        <v>244.6034496666666</v>
       </c>
       <c r="H28">
-        <v>241.284826431856</v>
+        <v>733.810349</v>
       </c>
       <c r="I28">
-        <v>0.2967213230950673</v>
+        <v>0.2923563188928492</v>
       </c>
       <c r="J28">
-        <v>0.2967213230950673</v>
+        <v>0.2923563188928492</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>87.7402052182964</v>
+        <v>94.98039866666666</v>
       </c>
       <c r="N28">
-        <v>87.7402052182964</v>
+        <v>284.941196</v>
       </c>
       <c r="O28">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="P28">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="Q28">
-        <v>21170.38018719207</v>
+        <v>23232.53316458193</v>
       </c>
       <c r="R28">
-        <v>21170.38018719207</v>
+        <v>209092.7984812374</v>
       </c>
       <c r="S28">
-        <v>0.06523197545287512</v>
+        <v>0.06615086322826573</v>
       </c>
       <c r="T28">
-        <v>0.06523197545287512</v>
+        <v>0.06615086322826573</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>241.284826431856</v>
+        <v>244.6034496666666</v>
       </c>
       <c r="H29">
-        <v>241.284826431856</v>
+        <v>733.810349</v>
       </c>
       <c r="I29">
-        <v>0.2967213230950673</v>
+        <v>0.2923563188928492</v>
       </c>
       <c r="J29">
-        <v>0.2967213230950673</v>
+        <v>0.2923563188928492</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>111.233232975752</v>
+        <v>116.4226483333333</v>
       </c>
       <c r="N29">
-        <v>111.233232975752</v>
+        <v>349.267945</v>
       </c>
       <c r="O29">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="P29">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="Q29">
-        <v>26838.89131200852</v>
+        <v>28477.38140166253</v>
       </c>
       <c r="R29">
-        <v>26838.89131200852</v>
+        <v>256296.4326149628</v>
       </c>
       <c r="S29">
-        <v>0.08269827389810019</v>
+        <v>0.08108471636973279</v>
       </c>
       <c r="T29">
-        <v>0.08269827389810019</v>
+        <v>0.08108471636973279</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>241.284826431856</v>
+        <v>244.6034496666666</v>
       </c>
       <c r="H30">
-        <v>241.284826431856</v>
+        <v>733.810349</v>
       </c>
       <c r="I30">
-        <v>0.2967213230950673</v>
+        <v>0.2923563188928492</v>
       </c>
       <c r="J30">
-        <v>0.2967213230950673</v>
+        <v>0.2923563188928492</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>65.5656738824178</v>
+        <v>67.22401466666666</v>
       </c>
       <c r="N30">
-        <v>65.5656738824178</v>
+        <v>201.672044</v>
       </c>
       <c r="O30">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="P30">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="Q30">
-        <v>15820.00224260685</v>
+        <v>16443.22588790926</v>
       </c>
       <c r="R30">
-        <v>15820.00224260685</v>
+        <v>147989.0329911833</v>
       </c>
       <c r="S30">
-        <v>0.04874593601198027</v>
+        <v>0.04681941392429893</v>
       </c>
       <c r="T30">
-        <v>0.04874593601198027</v>
+        <v>0.04681941392429893</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>241.284826431856</v>
+        <v>244.6034496666666</v>
       </c>
       <c r="H31">
-        <v>241.284826431856</v>
+        <v>733.810349</v>
       </c>
       <c r="I31">
-        <v>0.2967213230950673</v>
+        <v>0.2923563188928492</v>
       </c>
       <c r="J31">
-        <v>0.2967213230950673</v>
+        <v>0.2923563188928492</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>21.12593421067</v>
+        <v>23.32687966666667</v>
       </c>
       <c r="N31">
-        <v>21.12593421067</v>
+        <v>69.980639</v>
       </c>
       <c r="O31">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037586</v>
       </c>
       <c r="P31">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037585</v>
       </c>
       <c r="Q31">
-        <v>5097.36736923232</v>
+        <v>5705.83523642589</v>
       </c>
       <c r="R31">
-        <v>5097.36736923232</v>
+        <v>51352.51712783301</v>
       </c>
       <c r="S31">
-        <v>0.01570644174379147</v>
+        <v>0.01624643871823869</v>
       </c>
       <c r="T31">
-        <v>0.01570644174379147</v>
+        <v>0.01624643871823869</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.88259028924975</v>
+        <v>5.535289333333334</v>
       </c>
       <c r="H32">
-        <v>4.88259028924975</v>
+        <v>16.605868</v>
       </c>
       <c r="I32">
-        <v>0.006004391872385213</v>
+        <v>0.00661591983148845</v>
       </c>
       <c r="J32">
-        <v>0.006004391872385213</v>
+        <v>0.006615919831488449</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>31.3104510922269</v>
+        <v>35.43134066666666</v>
       </c>
       <c r="N32">
-        <v>31.3104510922269</v>
+        <v>106.294022</v>
       </c>
       <c r="O32">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="P32">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="Q32">
-        <v>152.8761044549363</v>
+        <v>196.1227220578996</v>
       </c>
       <c r="R32">
-        <v>152.8761044549363</v>
+        <v>1765.104498521096</v>
       </c>
       <c r="S32">
-        <v>0.0004710548513988811</v>
+        <v>0.0005584275838928195</v>
       </c>
       <c r="T32">
-        <v>0.0004710548513988811</v>
+        <v>0.0005584275838928195</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.88259028924975</v>
+        <v>5.535289333333334</v>
       </c>
       <c r="H33">
-        <v>4.88259028924975</v>
+        <v>16.605868</v>
       </c>
       <c r="I33">
-        <v>0.006004391872385213</v>
+        <v>0.00661591983148845</v>
       </c>
       <c r="J33">
-        <v>0.006004391872385213</v>
+        <v>0.006615919831488449</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>82.1292300225135</v>
+        <v>82.38429266666667</v>
       </c>
       <c r="N33">
-        <v>82.1292300225135</v>
+        <v>247.152878</v>
       </c>
       <c r="O33">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="P33">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="Q33">
-        <v>401.0033809714834</v>
+        <v>456.0208964320116</v>
       </c>
       <c r="R33">
-        <v>401.0033809714834</v>
+        <v>4104.188067888104</v>
       </c>
       <c r="S33">
-        <v>0.001235605712923252</v>
+        <v>0.001298445405647524</v>
       </c>
       <c r="T33">
-        <v>0.001235605712923252</v>
+        <v>0.001298445405647523</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.88259028924975</v>
+        <v>5.535289333333334</v>
       </c>
       <c r="H34">
-        <v>4.88259028924975</v>
+        <v>16.605868</v>
       </c>
       <c r="I34">
-        <v>0.006004391872385213</v>
+        <v>0.00661591983148845</v>
       </c>
       <c r="J34">
-        <v>0.006004391872385213</v>
+        <v>0.006615919831488449</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>87.7402052182964</v>
+        <v>94.98039866666666</v>
       </c>
       <c r="N34">
-        <v>87.7402052182964</v>
+        <v>284.941196</v>
       </c>
       <c r="O34">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="P34">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="Q34">
-        <v>428.3994739756342</v>
+        <v>525.7439876153476</v>
       </c>
       <c r="R34">
-        <v>428.3994739756342</v>
+        <v>4731.695888538128</v>
       </c>
       <c r="S34">
-        <v>0.001320020884051479</v>
+        <v>0.00149697057877639</v>
       </c>
       <c r="T34">
-        <v>0.001320020884051479</v>
+        <v>0.00149697057877639</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.88259028924975</v>
+        <v>5.535289333333334</v>
       </c>
       <c r="H35">
-        <v>4.88259028924975</v>
+        <v>16.605868</v>
       </c>
       <c r="I35">
-        <v>0.006004391872385213</v>
+        <v>0.00661591983148845</v>
       </c>
       <c r="J35">
-        <v>0.006004391872385213</v>
+        <v>0.006615919831488449</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>111.233232975752</v>
+        <v>116.4226483333333</v>
       </c>
       <c r="N35">
-        <v>111.233232975752</v>
+        <v>349.267945</v>
       </c>
       <c r="O35">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="P35">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="Q35">
-        <v>543.1063031692618</v>
+        <v>644.4330434779179</v>
       </c>
       <c r="R35">
-        <v>543.1063031692618</v>
+        <v>5799.897391301261</v>
       </c>
       <c r="S35">
-        <v>0.001673465319157219</v>
+        <v>0.001834918380053021</v>
       </c>
       <c r="T35">
-        <v>0.001673465319157219</v>
+        <v>0.001834918380053021</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.88259028924975</v>
+        <v>5.535289333333334</v>
       </c>
       <c r="H36">
-        <v>4.88259028924975</v>
+        <v>16.605868</v>
       </c>
       <c r="I36">
-        <v>0.006004391872385213</v>
+        <v>0.00661591983148845</v>
       </c>
       <c r="J36">
-        <v>0.006004391872385213</v>
+        <v>0.006615919831488449</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>65.5656738824178</v>
+        <v>67.22401466666666</v>
       </c>
       <c r="N36">
-        <v>65.5656738824178</v>
+        <v>201.672044</v>
       </c>
       <c r="O36">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="P36">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="Q36">
-        <v>320.1303226064091</v>
+        <v>372.1043713282436</v>
       </c>
       <c r="R36">
-        <v>320.1303226064091</v>
+        <v>3348.939341954192</v>
       </c>
       <c r="S36">
-        <v>0.0009864127692244364</v>
+        <v>0.001059506735662391</v>
       </c>
       <c r="T36">
-        <v>0.0009864127692244364</v>
+        <v>0.001059506735662391</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.88259028924975</v>
+        <v>5.535289333333334</v>
       </c>
       <c r="H37">
-        <v>4.88259028924975</v>
+        <v>16.605868</v>
       </c>
       <c r="I37">
-        <v>0.006004391872385213</v>
+        <v>0.00661591983148845</v>
       </c>
       <c r="J37">
-        <v>0.006004391872385213</v>
+        <v>0.006615919831488449</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>21.12593421067</v>
+        <v>23.32687966666667</v>
       </c>
       <c r="N37">
-        <v>21.12593421067</v>
+        <v>69.980639</v>
       </c>
       <c r="O37">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037586</v>
       </c>
       <c r="P37">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037585</v>
       </c>
       <c r="Q37">
-        <v>103.1492812283464</v>
+        <v>129.1210281988502</v>
       </c>
       <c r="R37">
-        <v>103.1492812283464</v>
+        <v>1162.089253789652</v>
       </c>
       <c r="S37">
-        <v>0.0003178323356299468</v>
+        <v>0.000367651147456304</v>
       </c>
       <c r="T37">
-        <v>0.0003178323356299468</v>
+        <v>0.0003676511474563039</v>
       </c>
     </row>
   </sheetData>
